--- a/Instances/14_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/14_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -42324,7 +42324,7 @@
         <v>0.001864</v>
       </c>
       <c r="E2" t="n">
-        <v>4.708464</v>
+        <v>8.432736</v>
       </c>
       <c r="F2" t="n">
         <v>0.007456000000000001</v>
@@ -42358,7 +42358,7 @@
         <v>0.00434</v>
       </c>
       <c r="E3" t="n">
-        <v>13.6276</v>
+        <v>24.44288</v>
       </c>
       <c r="F3" t="n">
         <v>0.01736</v>
@@ -42392,7 +42392,7 @@
         <v>0.002396</v>
       </c>
       <c r="E4" t="n">
-        <v>6.272728000000001</v>
+        <v>11.342664</v>
       </c>
       <c r="F4" t="n">
         <v>0.009584000000000001</v>
@@ -42426,7 +42426,7 @@
         <v>0.004668</v>
       </c>
       <c r="E5" t="n">
-        <v>10.17624</v>
+        <v>18.186528</v>
       </c>
       <c r="F5" t="n">
         <v>0.018672</v>
@@ -42460,7 +42460,7 @@
         <v>0.001836</v>
       </c>
       <c r="E6" t="n">
-        <v>12.855672</v>
+        <v>23.232744</v>
       </c>
       <c r="F6" t="n">
         <v>0.007344</v>
@@ -42488,13 +42488,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D7" t="n">
         <v>0.009132000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>5.654504000000001</v>
+        <v>10.015304</v>
       </c>
       <c r="F7" t="n">
         <v>0.036528</v>
@@ -42522,13 +42522,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D8" t="n">
         <v>0.032988</v>
       </c>
       <c r="E8" t="n">
-        <v>9.052768</v>
+        <v>16.32936</v>
       </c>
       <c r="F8" t="n">
         <v>0.131952</v>
@@ -42556,13 +42556,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="D9" t="n">
         <v>0.00886</v>
       </c>
       <c r="E9" t="n">
-        <v>4.498944</v>
+        <v>8.248063999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.03544</v>
@@ -42590,13 +42590,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D10" t="n">
         <v>0.017872</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5536</v>
+        <v>0.924512</v>
       </c>
       <c r="F10" t="n">
         <v>0.071488</v>
@@ -42624,13 +42624,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D11" t="n">
         <v>0.02014</v>
       </c>
       <c r="E11" t="n">
-        <v>4.602904000000001</v>
+        <v>8.410120000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.08055999999999999</v>
@@ -42658,13 +42658,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D12" t="n">
         <v>0.01216</v>
       </c>
       <c r="E12" t="n">
-        <v>1.81424</v>
+        <v>3.17492</v>
       </c>
       <c r="F12" t="n">
         <v>0.04864</v>
@@ -42692,13 +42692,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="D13" t="n">
         <v>0.011492</v>
       </c>
       <c r="E13" t="n">
-        <v>4.681264000000001</v>
+        <v>8.311631999999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.045968</v>
@@ -42726,13 +42726,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D14" t="n">
         <v>0.009108</v>
       </c>
       <c r="E14" t="n">
-        <v>2.385216</v>
+        <v>4.261392</v>
       </c>
       <c r="F14" t="n">
         <v>0.036432</v>
@@ -42760,13 +42760,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1472</v>
+        <v>1514</v>
       </c>
       <c r="D15" t="n">
         <v>0.007624000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>8.462056</v>
+        <v>15.558144</v>
       </c>
       <c r="F15" t="n">
         <v>0.030496</v>
@@ -42794,7 +42794,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D16" t="n">
         <v>0.001864</v>
@@ -42828,13 +42828,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
         <v>0.004476</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008704000000000002</v>
+        <v>0.015504</v>
       </c>
       <c r="F17" t="n">
         <v>0.017904</v>
@@ -42862,13 +42862,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0.00248</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008399999999999999</v>
+        <v>0.001512</v>
       </c>
       <c r="F18" t="n">
         <v>0.00992</v>
@@ -42902,7 +42902,7 @@
         <v>0.002472</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001824</v>
+        <v>0.003344</v>
       </c>
       <c r="F19" t="n">
         <v>0.009888000000000001</v>
@@ -42936,7 +42936,7 @@
         <v>0.004396</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001568</v>
+        <v>0.0028</v>
       </c>
       <c r="F20" t="n">
         <v>0.017584</v>
@@ -42964,13 +42964,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
         <v>0.004428000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005456000000000001</v>
+        <v>0.009504000000000002</v>
       </c>
       <c r="F21" t="n">
         <v>0.017712</v>
@@ -43038,7 +43038,7 @@
         <v>0.0044</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006000000000000001</v>
+        <v>0.00108</v>
       </c>
       <c r="F23" t="n">
         <v>0.0176</v>
@@ -43066,13 +43066,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.00252</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003968</v>
+        <v>0.007192</v>
       </c>
       <c r="F24" t="n">
         <v>0.01008</v>
@@ -43100,13 +43100,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
         <v>0.002484</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004576</v>
+        <v>0.008272000000000002</v>
       </c>
       <c r="F25" t="n">
         <v>0.009936</v>
@@ -43134,7 +43134,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D26" t="n">
         <v>0.002396</v>
@@ -43168,13 +43168,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="n">
         <v>0.004744</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001672</v>
+        <v>0.00304</v>
       </c>
       <c r="F27" t="n">
         <v>0.018976</v>
@@ -43202,7 +43202,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" t="n">
         <v>0.004668</v>
@@ -43236,13 +43236,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
         <v>0.004764</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002112</v>
+        <v>0.003456</v>
       </c>
       <c r="F29" t="n">
         <v>0.019056</v>
@@ -43270,13 +43270,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.004768000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0034</v>
+        <v>0.0058</v>
       </c>
       <c r="F30" t="n">
         <v>0.019072</v>
@@ -43310,7 +43310,7 @@
         <v>0.00472</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0005200000000000001</v>
+        <v>0.0008320000000000001</v>
       </c>
       <c r="F31" t="n">
         <v>0.01888</v>
@@ -43338,13 +43338,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
         <v>0.001892</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00168</v>
+        <v>0.003136</v>
       </c>
       <c r="F32" t="n">
         <v>0.007568</v>
@@ -43378,7 +43378,7 @@
         <v>0.001936</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0024</v>
+        <v>0.004200000000000001</v>
       </c>
       <c r="F33" t="n">
         <v>0.007744</v>
@@ -43412,7 +43412,7 @@
         <v>0.001928</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008648000000000001</v>
+        <v>0.015456</v>
       </c>
       <c r="F34" t="n">
         <v>0.007712</v>
@@ -43474,13 +43474,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" t="n">
         <v>0.001936</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0066</v>
+        <v>0.0118</v>
       </c>
       <c r="F36" t="n">
         <v>0.007744</v>
@@ -43814,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D46" t="n">
         <v>0.009508000000000001</v>
@@ -43848,7 +43848,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D47" t="n">
         <v>0.010248</v>
@@ -43882,7 +43882,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
         <v>0.009952000000000001</v>
@@ -43916,7 +43916,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D49" t="n">
         <v>0.009824000000000001</v>
@@ -43984,7 +43984,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="n">
         <v>0.03497600000000001</v>
@@ -44018,7 +44018,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
         <v>0.034812</v>
@@ -44086,7 +44086,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D54" t="n">
         <v>0.009592</v>
@@ -44120,7 +44120,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D55" t="n">
         <v>0.010316</v>
@@ -44154,7 +44154,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" t="n">
         <v>0.009604</v>
@@ -44188,7 +44188,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D57" t="n">
         <v>0.009336000000000001</v>
@@ -44222,7 +44222,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D58" t="n">
         <v>0.0186</v>
@@ -44256,7 +44256,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D59" t="n">
         <v>0.019684</v>
@@ -44290,7 +44290,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
         <v>0.01958</v>
@@ -44324,7 +44324,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D61" t="n">
         <v>0.0189</v>
@@ -44358,7 +44358,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D62" t="n">
         <v>0.021808</v>
@@ -44392,7 +44392,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D63" t="n">
         <v>0.02352</v>
@@ -44426,7 +44426,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D64" t="n">
         <v>0.023316</v>
@@ -44460,7 +44460,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D65" t="n">
         <v>0.022012</v>
@@ -44494,7 +44494,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>0.01322</v>
@@ -44528,7 +44528,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" t="n">
         <v>0.013572</v>
@@ -44562,7 +44562,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0.013476</v>
@@ -44630,7 +44630,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D70" t="n">
         <v>0.012216</v>
@@ -44664,7 +44664,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
         <v>0.012304</v>
@@ -44698,7 +44698,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
         <v>0.012464</v>
@@ -44732,7 +44732,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D73" t="n">
         <v>0.011984</v>
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D74" t="n">
         <v>0.010624</v>
@@ -44800,7 +44800,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>0.01228</v>
@@ -44834,7 +44834,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" t="n">
         <v>0.011904</v>
@@ -44868,7 +44868,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
         <v>0.010752</v>
@@ -44902,7 +44902,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D78" t="n">
         <v>0.008472</v>
@@ -44936,7 +44936,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" t="n">
         <v>0.008796</v>
@@ -44970,7 +44970,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D80" t="n">
         <v>0.008264000000000001</v>
@@ -45004,7 +45004,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D81" t="n">
         <v>0.008176000000000001</v>
@@ -45044,7 +45044,7 @@
         <v>0.009508000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.038352</v>
+        <v>0.063168</v>
       </c>
       <c r="F82" t="n">
         <v>0.038032</v>
@@ -45078,7 +45078,7 @@
         <v>0.010248</v>
       </c>
       <c r="E83" t="n">
-        <v>0.104904</v>
+        <v>0.18972</v>
       </c>
       <c r="F83" t="n">
         <v>0.04099200000000001</v>
@@ -45112,7 +45112,7 @@
         <v>0.009952000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.06723999999999999</v>
+        <v>0.13612</v>
       </c>
       <c r="F84" t="n">
         <v>0.039808</v>
@@ -45146,7 +45146,7 @@
         <v>0.009824000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106568</v>
+        <v>0.185456</v>
       </c>
       <c r="F85" t="n">
         <v>0.039296</v>
@@ -45180,7 +45180,7 @@
         <v>0.03405200000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08299200000000001</v>
+        <v>0.14896</v>
       </c>
       <c r="F86" t="n">
         <v>0.136208</v>
@@ -45214,7 +45214,7 @@
         <v>0.03497600000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.107352</v>
+        <v>0.194824</v>
       </c>
       <c r="F87" t="n">
         <v>0.139904</v>
@@ -45248,7 +45248,7 @@
         <v>0.034812</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09119999999999999</v>
+        <v>0.167808</v>
       </c>
       <c r="F88" t="n">
         <v>0.139248</v>
@@ -45282,7 +45282,7 @@
         <v>0.033648</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05412</v>
+        <v>0.09636</v>
       </c>
       <c r="F89" t="n">
         <v>0.134592</v>
@@ -45316,7 +45316,7 @@
         <v>0.009592</v>
       </c>
       <c r="E90" t="n">
-        <v>0.064416</v>
+        <v>0.144936</v>
       </c>
       <c r="F90" t="n">
         <v>0.038368</v>
@@ -45350,7 +45350,7 @@
         <v>0.010316</v>
       </c>
       <c r="E91" t="n">
-        <v>0.17472</v>
+        <v>0.308672</v>
       </c>
       <c r="F91" t="n">
         <v>0.041264</v>
@@ -45384,7 +45384,7 @@
         <v>0.009604</v>
       </c>
       <c r="E92" t="n">
-        <v>0.05803200000000001</v>
+        <v>0.1116</v>
       </c>
       <c r="F92" t="n">
         <v>0.038416</v>
@@ -45418,7 +45418,7 @@
         <v>0.009336000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07330400000000001</v>
+        <v>0.127568</v>
       </c>
       <c r="F93" t="n">
         <v>0.037344</v>
@@ -45452,7 +45452,7 @@
         <v>0.0186</v>
       </c>
       <c r="E94" t="n">
-        <v>0.061152</v>
+        <v>0.1092</v>
       </c>
       <c r="F94" t="n">
         <v>0.07439999999999999</v>
@@ -45486,7 +45486,7 @@
         <v>0.019684</v>
       </c>
       <c r="E95" t="n">
-        <v>0.08697600000000001</v>
+        <v>0.152208</v>
       </c>
       <c r="F95" t="n">
         <v>0.078736</v>
@@ -45520,7 +45520,7 @@
         <v>0.01958</v>
       </c>
       <c r="E96" t="n">
-        <v>0.030744</v>
+        <v>0.013664</v>
       </c>
       <c r="F96" t="n">
         <v>0.07832</v>
@@ -45554,7 +45554,7 @@
         <v>0.0189</v>
       </c>
       <c r="E97" t="n">
-        <v>0.049344</v>
+        <v>0.088408</v>
       </c>
       <c r="F97" t="n">
         <v>0.0756</v>
@@ -45588,7 +45588,7 @@
         <v>0.021808</v>
       </c>
       <c r="E98" t="n">
-        <v>0.156792</v>
+        <v>0.313584</v>
       </c>
       <c r="F98" t="n">
         <v>0.08723199999999999</v>
@@ -45622,7 +45622,7 @@
         <v>0.02352</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3920799999999996</v>
+        <v>0.5813599999999993</v>
       </c>
       <c r="F99" t="n">
         <v>0.09407999999999998</v>
@@ -45656,7 +45656,7 @@
         <v>0.023316</v>
       </c>
       <c r="E100" t="n">
-        <v>0.266784</v>
+        <v>0.5462720000000001</v>
       </c>
       <c r="F100" t="n">
         <v>0.093264</v>
@@ -45690,7 +45690,7 @@
         <v>0.022012</v>
       </c>
       <c r="E101" t="n">
-        <v>0.408096</v>
+        <v>0.763776</v>
       </c>
       <c r="F101" t="n">
         <v>0.08804799999999999</v>
@@ -45724,7 +45724,7 @@
         <v>0.01322</v>
       </c>
       <c r="E102" t="n">
-        <v>0.04028</v>
+        <v>0.0742</v>
       </c>
       <c r="F102" t="n">
         <v>0.05288</v>
@@ -45758,7 +45758,7 @@
         <v>0.013572</v>
       </c>
       <c r="E103" t="n">
-        <v>0.067776</v>
+        <v>0.118608</v>
       </c>
       <c r="F103" t="n">
         <v>0.054288</v>
@@ -45792,7 +45792,7 @@
         <v>0.013476</v>
       </c>
       <c r="E104" t="n">
-        <v>0.050008</v>
+        <v>0.08422400000000001</v>
       </c>
       <c r="F104" t="n">
         <v>0.053904</v>
@@ -45826,7 +45826,7 @@
         <v>0.013236</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04949600000000001</v>
+        <v>0.08392800000000002</v>
       </c>
       <c r="F105" t="n">
         <v>0.052944</v>
@@ -45860,7 +45860,7 @@
         <v>0.012216</v>
       </c>
       <c r="E106" t="n">
-        <v>0.078192</v>
+        <v>0.139008</v>
       </c>
       <c r="F106" t="n">
         <v>0.048864</v>
@@ -45894,7 +45894,7 @@
         <v>0.012304</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06496</v>
+        <v>0.092568</v>
       </c>
       <c r="F107" t="n">
         <v>0.049216</v>
@@ -45928,7 +45928,7 @@
         <v>0.012464</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05443200000000001</v>
+        <v>0.101088</v>
       </c>
       <c r="F108" t="n">
         <v>0.049856</v>
@@ -45962,7 +45962,7 @@
         <v>0.011984</v>
       </c>
       <c r="E109" t="n">
-        <v>0.09348000000000001</v>
+        <v>0.1722</v>
       </c>
       <c r="F109" t="n">
         <v>0.047936</v>
@@ -45996,7 +45996,7 @@
         <v>0.010624</v>
       </c>
       <c r="E110" t="n">
-        <v>0.10612</v>
+        <v>0.19708</v>
       </c>
       <c r="F110" t="n">
         <v>0.042496</v>
@@ -46030,7 +46030,7 @@
         <v>0.01228</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09515999999999999</v>
+        <v>0.19032</v>
       </c>
       <c r="F111" t="n">
         <v>0.04912</v>
@@ -46064,7 +46064,7 @@
         <v>0.011904</v>
       </c>
       <c r="E112" t="n">
-        <v>0.156576</v>
+        <v>0.2851920000000001</v>
       </c>
       <c r="F112" t="n">
         <v>0.047616</v>
@@ -46098,7 +46098,7 @@
         <v>0.010752</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05260800000000001</v>
+        <v>0.108504</v>
       </c>
       <c r="F113" t="n">
         <v>0.043008</v>
@@ -46132,7 +46132,7 @@
         <v>0.008472</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09836800000000001</v>
+        <v>0.200128</v>
       </c>
       <c r="F114" t="n">
         <v>0.033888</v>
@@ -46166,7 +46166,7 @@
         <v>0.008796</v>
       </c>
       <c r="E115" t="n">
-        <v>0.18752</v>
+        <v>0.342224</v>
       </c>
       <c r="F115" t="n">
         <v>0.035184</v>
@@ -46200,7 +46200,7 @@
         <v>0.008264000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.14208</v>
+        <v>0.2688</v>
       </c>
       <c r="F116" t="n">
         <v>0.033056</v>
@@ -46234,7 +46234,7 @@
         <v>0.008176000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.216384</v>
+        <v>0.388608</v>
       </c>
       <c r="F117" t="n">
         <v>0.032704</v>
@@ -46263,7 +46263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM6"/>
+  <dimension ref="A1:DM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46903,10 +46903,10 @@
         <v>316</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>12</v>
@@ -46915,10 +46915,10 @@
         <v>14</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -46927,19 +46927,19 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>146</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>16</v>
@@ -46948,10 +46948,10 @@
         <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>46</v>
@@ -46963,139 +46963,139 @@
         <v>33</v>
       </c>
       <c r="AK2" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AP2" t="n">
         <v>31</v>
       </c>
       <c r="AQ2" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AT2" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AU2" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AV2" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AW2" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AX2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA2" t="n">
         <v>40</v>
       </c>
       <c r="BB2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BC2" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BE2" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BF2" t="n">
         <v>42</v>
       </c>
       <c r="BG2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>27</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>47</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>114</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>25</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>23</v>
       </c>
-      <c r="BH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>46</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>57</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>37</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>110</v>
-      </c>
-      <c r="BN2" t="n">
+      <c r="BR2" t="n">
+        <v>32</v>
+      </c>
+      <c r="BS2" t="n">
         <v>18</v>
       </c>
-      <c r="BO2" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>66</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>38</v>
-      </c>
       <c r="BT2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BU2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BV2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BW2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BX2" t="n">
         <v>31</v>
       </c>
       <c r="BY2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BZ2" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="CA2" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="CB2" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="CC2" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -47253,10 +47253,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
@@ -47268,34 +47268,34 @@
         <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V3" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -47304,7 +47304,7 @@
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>46</v>
@@ -47313,94 +47313,94 @@
         <v>1942</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AP3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ3" t="n">
         <v>124</v>
       </c>
       <c r="AR3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS3" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AT3" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AU3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="AW3" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AX3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AY3" t="n">
         <v>28</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>40</v>
       </c>
       <c r="BB3" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="BC3" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="BD3" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BE3" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BF3" t="n">
+        <v>42</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BK3" t="n">
         <v>41</v>
       </c>
-      <c r="BG3" t="n">
-        <v>24</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>50</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>42</v>
-      </c>
       <c r="BL3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="BM3" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BN3" t="n">
         <v>19</v>
@@ -47409,46 +47409,46 @@
         <v>24</v>
       </c>
       <c r="BP3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BQ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BR3" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="BS3" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>44</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV3" t="n">
         <v>47</v>
       </c>
-      <c r="BT3" t="n">
-        <v>31</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>88</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>35</v>
-      </c>
       <c r="BW3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BX3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BY3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BZ3" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="CA3" t="n">
         <v>82</v>
       </c>
       <c r="CB3" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CC3" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
@@ -47606,7 +47606,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q4" t="n">
         <v>32</v>
@@ -47615,52 +47615,52 @@
         <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" t="n">
         <v>656</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="n">
         <v>1942</v>
@@ -47669,139 +47669,139 @@
         <v>33</v>
       </c>
       <c r="AK4" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AQ4" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AR4" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AT4" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AU4" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AV4" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AW4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AX4" t="n">
         <v>38</v>
       </c>
       <c r="AY4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>26</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BB4" t="n">
         <v>47</v>
       </c>
       <c r="BC4" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BD4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="BE4" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BG4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BH4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BJ4" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="BK4" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="BL4" t="n">
         <v>48</v>
       </c>
       <c r="BM4" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BN4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BQ4" t="n">
         <v>23</v>
       </c>
       <c r="BR4" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="BS4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="BT4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="BU4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="BV4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BW4" t="n">
         <v>14</v>
       </c>
       <c r="BX4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BY4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BZ4" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="CA4" t="n">
         <v>75</v>
       </c>
       <c r="CB4" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="CC4" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
@@ -47962,31 +47962,31 @@
         <v>317</v>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V5" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
         <v>344</v>
@@ -47995,10 +47995,10 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
@@ -48010,7 +48010,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>47</v>
@@ -48022,139 +48022,139 @@
         <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AP5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AR5" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AS5" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AT5" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AU5" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AV5" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AW5" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AX5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>68</v>
+      </c>
+      <c r="BF5" t="n">
         <v>41</v>
       </c>
-      <c r="BB5" t="n">
-        <v>38</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>61</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>46</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>78</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>42</v>
-      </c>
       <c r="BG5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BH5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BJ5" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="BK5" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="BL5" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="BM5" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BN5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BO5" t="n">
         <v>24</v>
       </c>
       <c r="BP5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BQ5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>43</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>36</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>49</v>
+      </c>
+      <c r="BW5" t="n">
         <v>22</v>
       </c>
-      <c r="BR5" t="n">
-        <v>63</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>47</v>
-      </c>
-      <c r="BT5" t="n">
+      <c r="BX5" t="n">
         <v>28</v>
       </c>
-      <c r="BU5" t="n">
-        <v>97</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>40</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>15</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>34</v>
-      </c>
       <c r="BY5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="BZ5" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="CA5" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CB5" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="CC5" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -48312,13 +48312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
         <v>12</v>
@@ -48327,10 +48327,10 @@
         <v>14</v>
       </c>
       <c r="U6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V6" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -48339,40 +48339,40 @@
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>147</v>
+      </c>
+      <c r="AC6" t="n">
         <v>10</v>
       </c>
-      <c r="AB6" t="n">
-        <v>146</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="n">
         <v>1942</v>
       </c>
       <c r="AJ6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
         <v>178</v>
@@ -48381,240 +48381,1652 @@
         <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AP6" t="n">
         <v>30</v>
       </c>
       <c r="AQ6" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AS6" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AT6" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AU6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AV6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW6" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AX6" t="n">
         <v>39</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BB6" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BC6" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="BD6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BE6" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="BF6" t="n">
         <v>41</v>
       </c>
       <c r="BG6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BH6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI6" t="n">
         <v>24</v>
       </c>
       <c r="BJ6" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BK6" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="BL6" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="BM6" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="BN6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BO6" t="n">
         <v>23</v>
       </c>
       <c r="BP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>46</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>24</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>39</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>24</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>80</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>116</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>197</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" t="n">
+        <v>656</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>345</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>144</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="n">
         <v>15</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1942</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>127</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>202</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>124</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>282</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>74</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>39</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>42</v>
+      </c>
+      <c r="BG7" t="n">
         <v>22</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>48</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>43</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>114</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>17</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>62</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>39</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>113</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>40</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>71</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>84</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>108</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>197</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>31</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>30</v>
+      </c>
+      <c r="V8" t="n">
+        <v>655</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>344</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>145</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1942</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>167</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>131</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>137</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>78</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>59</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>37</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>83</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>25</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>53</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>52</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>111</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>55</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>15</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>95</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>65</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>84</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>116</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>193</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>316</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>31</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>31</v>
+      </c>
+      <c r="V9" t="n">
+        <v>656</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>344</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>144</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1942</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>168</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>99</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>128</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>299</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>42</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>79</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>42</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>62</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>43</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>107</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>60</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>27</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>31</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>107</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>47</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>63</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>114</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>193</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>317</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>30</v>
+      </c>
+      <c r="V10" t="n">
+        <v>655</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>344</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>145</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1942</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>172</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>203</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>123</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>66</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>273</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU10" t="n">
         <v>50</v>
       </c>
-      <c r="BS6" t="n">
-        <v>27</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>32</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>104</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>30</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BX6" t="n">
+      <c r="AV10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>39</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>43</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>42</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>43</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>117</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>21</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>19</v>
       </c>
-      <c r="BY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>78</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>108</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>187</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
+      <c r="BR10" t="n">
+        <v>52</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>45</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>43</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>92</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>28</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>64</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>88</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>118</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>195</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48629,7 +50041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM6"/>
+  <dimension ref="A1:DM10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49269,10 +50681,10 @@
         <v>39.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -49281,10 +50693,10 @@
         <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>3.75</v>
+        <v>3.625</v>
       </c>
       <c r="V2" t="n">
-        <v>82</v>
+        <v>82.25</v>
       </c>
       <c r="W2" t="n">
         <v>0.625</v>
@@ -49293,19 +50705,19 @@
         <v>1.875</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.25</v>
+        <v>3.125</v>
       </c>
       <c r="Z2" t="n">
-        <v>42.875</v>
+        <v>43.125</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="AB2" t="n">
         <v>18.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="AD2" t="n">
         <v>2</v>
@@ -49314,10 +50726,10 @@
         <v>0.625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="AH2" t="n">
         <v>5.75</v>
@@ -49329,139 +50741,139 @@
         <v>4.125</v>
       </c>
       <c r="AK2" t="n">
-        <v>21.375</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AO2" t="n">
-        <v>25.5</v>
+        <v>26.125</v>
       </c>
       <c r="AP2" t="n">
         <v>3.875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15.625</v>
+        <v>17.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>34.625</v>
+        <v>35.125</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.25</v>
+        <v>4.625</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.875</v>
+        <v>6.625</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.625</v>
+        <v>6.75</v>
       </c>
       <c r="AW2" t="n">
-        <v>12.375</v>
+        <v>9.25</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.875</v>
+        <v>4.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.25</v>
+        <v>3.375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.125</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>5</v>
       </c>
       <c r="BB2" t="n">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="BC2" t="n">
-        <v>7.75</v>
+        <v>6.375</v>
       </c>
       <c r="BD2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BE2" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="BF2" t="n">
         <v>5.25</v>
       </c>
       <c r="BG2" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>2.875</v>
       </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>7.125</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>4.625</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="BN2" t="n">
+      <c r="BR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS2" t="n">
         <v>2.25</v>
       </c>
-      <c r="BO2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>4.75</v>
-      </c>
       <c r="BT2" t="n">
-        <v>2.875</v>
+        <v>4.25</v>
       </c>
       <c r="BU2" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="BV2" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="BX2" t="n">
         <v>3.875</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.125</v>
+        <v>2.625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>6.375</v>
+        <v>7.75</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="CB2" t="n">
-        <v>13.875</v>
+        <v>15</v>
       </c>
       <c r="CC2" t="n">
-        <v>24.5</v>
+        <v>25.375</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -49619,10 +51031,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>59.25</v>
+        <v>59.4375</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.8125</v>
+        <v>6.1875</v>
       </c>
       <c r="R3" t="n">
         <v>0.9375</v>
@@ -49634,34 +51046,34 @@
         <v>2.625</v>
       </c>
       <c r="U3" t="n">
-        <v>5.8125</v>
+        <v>5.625</v>
       </c>
       <c r="V3" t="n">
-        <v>123.1875</v>
+        <v>122.8125</v>
       </c>
       <c r="W3" t="n">
         <v>0.9375</v>
       </c>
       <c r="X3" t="n">
-        <v>2.8125</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.0625</v>
+        <v>4.875</v>
       </c>
       <c r="Z3" t="n">
-        <v>64.6875</v>
+        <v>64.5</v>
       </c>
       <c r="AA3" t="n">
         <v>2.0625</v>
       </c>
       <c r="AB3" t="n">
-        <v>27.1875</v>
+        <v>27.375</v>
       </c>
       <c r="AC3" t="n">
         <v>1.875</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>3.1875</v>
       </c>
       <c r="AE3" t="n">
         <v>0.75</v>
@@ -49670,7 +51082,7 @@
         <v>2.8125</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.0625</v>
+        <v>2.25</v>
       </c>
       <c r="AH3" t="n">
         <v>8.625</v>
@@ -49679,94 +51091,94 @@
         <v>364.125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.375</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>32.25</v>
+        <v>31.125</v>
       </c>
       <c r="AL3" t="n">
         <v>4.6875</v>
       </c>
       <c r="AM3" t="n">
-        <v>22.875</v>
+        <v>24.5625</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>38.0625</v>
+        <v>38.4375</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.625</v>
+        <v>5.8125</v>
       </c>
       <c r="AQ3" t="n">
         <v>23.25</v>
       </c>
       <c r="AR3" t="n">
-        <v>11.625</v>
+        <v>12.9375</v>
       </c>
       <c r="AS3" t="n">
-        <v>54.1875</v>
+        <v>53.625</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.75</v>
+        <v>7.6875</v>
       </c>
       <c r="AU3" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.25</v>
+        <v>8.8125</v>
       </c>
       <c r="AW3" t="n">
-        <v>12.9375</v>
+        <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.125</v>
+        <v>7.3125</v>
       </c>
       <c r="AY3" t="n">
         <v>5.25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5.0625</v>
+        <v>4.6875</v>
       </c>
       <c r="BA3" t="n">
         <v>7.5</v>
       </c>
       <c r="BB3" t="n">
-        <v>7.5</v>
+        <v>14.0625</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>10.875</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.75</v>
+        <v>6.1875</v>
       </c>
       <c r="BE3" t="n">
-        <v>13.5</v>
+        <v>12.5625</v>
       </c>
       <c r="BF3" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>9.5625</v>
+      </c>
+      <c r="BK3" t="n">
         <v>7.6875</v>
       </c>
-      <c r="BG3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>2.4375</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>4.3125</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>7.875</v>
-      </c>
       <c r="BL3" t="n">
-        <v>7.125</v>
+        <v>8.0625</v>
       </c>
       <c r="BM3" t="n">
-        <v>20.8125</v>
+        <v>21.1875</v>
       </c>
       <c r="BN3" t="n">
         <v>3.5625</v>
@@ -49775,46 +51187,46 @@
         <v>4.5</v>
       </c>
       <c r="BP3" t="n">
-        <v>4.125</v>
+        <v>3.1875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>4.125</v>
+        <v>3.9375</v>
       </c>
       <c r="BR3" t="n">
-        <v>9.1875</v>
+        <v>7.6875</v>
       </c>
       <c r="BS3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BV3" t="n">
         <v>8.8125</v>
       </c>
-      <c r="BT3" t="n">
-        <v>5.8125</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>6.5625</v>
-      </c>
       <c r="BW3" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="BX3" t="n">
-        <v>4.875</v>
+        <v>4.6875</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.8125</v>
+        <v>3.5625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>11.8125</v>
+        <v>8.625</v>
       </c>
       <c r="CA3" t="n">
         <v>15.375</v>
       </c>
       <c r="CB3" t="n">
-        <v>21.1875</v>
+        <v>20.625</v>
       </c>
       <c r="CC3" t="n">
-        <v>37.3125</v>
+        <v>36.5625</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
@@ -49972,7 +51384,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>69.125</v>
+        <v>69.34375</v>
       </c>
       <c r="Q4" t="n">
         <v>7</v>
@@ -49981,52 +51393,52 @@
         <v>1.09375</v>
       </c>
       <c r="S4" t="n">
-        <v>2.40625</v>
+        <v>2.625</v>
       </c>
       <c r="T4" t="n">
-        <v>2.84375</v>
+        <v>3.0625</v>
       </c>
       <c r="U4" t="n">
-        <v>6.5625</v>
+        <v>6.34375</v>
       </c>
       <c r="V4" t="n">
         <v>143.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0.875</v>
+        <v>1.09375</v>
       </c>
       <c r="X4" t="n">
         <v>3.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.46875</v>
+        <v>5.6875</v>
       </c>
       <c r="Z4" t="n">
-        <v>75.25</v>
+        <v>75.03125</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.625</v>
+        <v>2.40625</v>
       </c>
       <c r="AB4" t="n">
-        <v>31.9375</v>
+        <v>31.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.96875</v>
+        <v>2.40625</v>
       </c>
       <c r="AD4" t="n">
         <v>3.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.09375</v>
+        <v>0.65625</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.28125</v>
+        <v>3.0625</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.40625</v>
+        <v>2.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>10.0625</v>
+        <v>10.28125</v>
       </c>
       <c r="AI4" t="n">
         <v>424.8125</v>
@@ -50035,139 +51447,139 @@
         <v>7.21875</v>
       </c>
       <c r="AK4" t="n">
-        <v>37.84375</v>
+        <v>35.875</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.46875</v>
+        <v>5.90625</v>
       </c>
       <c r="AM4" t="n">
-        <v>29.96875</v>
+        <v>28.65625</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>43.09375</v>
+        <v>42.875</v>
       </c>
       <c r="AP4" t="n">
-        <v>6.78125</v>
+        <v>6.5625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>28.4375</v>
       </c>
       <c r="AR4" t="n">
-        <v>15.53125</v>
+        <v>13.125</v>
       </c>
       <c r="AS4" t="n">
-        <v>64.09375</v>
+        <v>62.34375</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.78125</v>
+        <v>9.84375</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.40625</v>
+        <v>11.8125</v>
       </c>
       <c r="AV4" t="n">
-        <v>7.875</v>
+        <v>9.625</v>
       </c>
       <c r="AW4" t="n">
-        <v>15.96875</v>
+        <v>14.875</v>
       </c>
       <c r="AX4" t="n">
         <v>8.3125</v>
       </c>
       <c r="AY4" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>5.6875</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>5.03125</v>
-      </c>
       <c r="BA4" t="n">
-        <v>8.96875</v>
+        <v>8.75</v>
       </c>
       <c r="BB4" t="n">
         <v>10.28125</v>
       </c>
       <c r="BC4" t="n">
-        <v>13.125</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.4375</v>
+        <v>9.1875</v>
       </c>
       <c r="BE4" t="n">
-        <v>17.0625</v>
+        <v>16.625</v>
       </c>
       <c r="BF4" t="n">
-        <v>9.1875</v>
+        <v>8.96875</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.8125</v>
+        <v>5.46875</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.40625</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>5.46875</v>
+        <v>5.25</v>
       </c>
       <c r="BJ4" t="n">
-        <v>8.53125</v>
+        <v>12.6875</v>
       </c>
       <c r="BK4" t="n">
-        <v>16.625</v>
+        <v>11.59375</v>
       </c>
       <c r="BL4" t="n">
         <v>10.5</v>
       </c>
       <c r="BM4" t="n">
-        <v>24.0625</v>
+        <v>24.9375</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.9375</v>
+        <v>3.71875</v>
       </c>
       <c r="BO4" t="n">
-        <v>5.03125</v>
+        <v>5.25</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.71875</v>
+        <v>4.375</v>
       </c>
       <c r="BQ4" t="n">
         <v>5.03125</v>
       </c>
       <c r="BR4" t="n">
-        <v>9.1875</v>
+        <v>13.34375</v>
       </c>
       <c r="BS4" t="n">
-        <v>8.3125</v>
+        <v>4.15625</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.03125</v>
+        <v>7</v>
       </c>
       <c r="BU4" t="n">
-        <v>20.5625</v>
+        <v>21.65625</v>
       </c>
       <c r="BV4" t="n">
-        <v>6.5625</v>
+        <v>5.6875</v>
       </c>
       <c r="BW4" t="n">
         <v>3.0625</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.34375</v>
+        <v>8.96875</v>
       </c>
       <c r="BY4" t="n">
-        <v>4.375</v>
+        <v>1.3125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>12.46875</v>
+        <v>16.84375</v>
       </c>
       <c r="CA4" t="n">
         <v>16.40625</v>
       </c>
       <c r="CB4" t="n">
-        <v>23.625</v>
+        <v>26.25</v>
       </c>
       <c r="CC4" t="n">
-        <v>43.75</v>
+        <v>43.09375</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
@@ -50328,31 +51740,31 @@
         <v>74.296875</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.5</v>
+        <v>7.265625</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9375</v>
+        <v>1.171875</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8125</v>
+        <v>2.578125</v>
       </c>
       <c r="T5" t="n">
-        <v>3.515625</v>
+        <v>3.046875</v>
       </c>
       <c r="U5" t="n">
-        <v>6.796875</v>
+        <v>7.265625</v>
       </c>
       <c r="V5" t="n">
-        <v>154.453125</v>
+        <v>153.984375</v>
       </c>
       <c r="W5" t="n">
-        <v>1.40625</v>
+        <v>1.171875</v>
       </c>
       <c r="X5" t="n">
         <v>3.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.09375</v>
+        <v>5.859375</v>
       </c>
       <c r="Z5" t="n">
         <v>80.625</v>
@@ -50361,10 +51773,10 @@
         <v>2.578125</v>
       </c>
       <c r="AB5" t="n">
-        <v>34.21875</v>
+        <v>34.453125</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.578125</v>
+        <v>2.34375</v>
       </c>
       <c r="AD5" t="n">
         <v>3.75</v>
@@ -50376,7 +51788,7 @@
         <v>3.515625</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.578125</v>
+        <v>2.8125</v>
       </c>
       <c r="AH5" t="n">
         <v>11.015625</v>
@@ -50388,139 +51800,139 @@
         <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>39.609375</v>
+        <v>39.84375</v>
       </c>
       <c r="AL5" t="n">
         <v>6.328125</v>
       </c>
       <c r="AM5" t="n">
-        <v>26.71875</v>
+        <v>30.46875</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>47.578125</v>
+        <v>47.109375</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.265625</v>
+        <v>7.03125</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29.53125</v>
+        <v>28.59375</v>
       </c>
       <c r="AR5" t="n">
-        <v>16.171875</v>
+        <v>15.46875</v>
       </c>
       <c r="AS5" t="n">
-        <v>65.390625</v>
+        <v>67.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>8.671875</v>
+        <v>12.421875</v>
       </c>
       <c r="AU5" t="n">
-        <v>14.296875</v>
+        <v>12.65625</v>
       </c>
       <c r="AV5" t="n">
-        <v>10.546875</v>
+        <v>9.84375</v>
       </c>
       <c r="AW5" t="n">
-        <v>19.6875</v>
+        <v>18.046875</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.90625</v>
+        <v>9.140625</v>
       </c>
       <c r="AY5" t="n">
         <v>6.09375</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5.625</v>
+        <v>5.859375</v>
       </c>
       <c r="BA5" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>11.71875</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>15.234375</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>15.9375</v>
+      </c>
+      <c r="BF5" t="n">
         <v>9.609375</v>
       </c>
-      <c r="BB5" t="n">
-        <v>8.90625</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>14.296875</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>10.78125</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>18.28125</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>9.84375</v>
-      </c>
       <c r="BG5" t="n">
-        <v>5.859375</v>
+        <v>4.921875</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.40625</v>
+        <v>1.171875</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.390625</v>
+        <v>5.15625</v>
       </c>
       <c r="BJ5" t="n">
-        <v>9.140625</v>
+        <v>7.96875</v>
       </c>
       <c r="BK5" t="n">
-        <v>11.25</v>
+        <v>9.609375</v>
       </c>
       <c r="BL5" t="n">
-        <v>9.609375</v>
+        <v>11.71875</v>
       </c>
       <c r="BM5" t="n">
-        <v>24.375</v>
+        <v>25.078125</v>
       </c>
       <c r="BN5" t="n">
-        <v>4.21875</v>
+        <v>5.15625</v>
       </c>
       <c r="BO5" t="n">
         <v>5.625</v>
       </c>
       <c r="BP5" t="n">
-        <v>3.75</v>
+        <v>4.453125</v>
       </c>
       <c r="BQ5" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>10.078125</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>3.515625</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>19.6875</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>11.484375</v>
+      </c>
+      <c r="BW5" t="n">
         <v>5.15625</v>
       </c>
-      <c r="BR5" t="n">
-        <v>14.765625</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>11.015625</v>
-      </c>
-      <c r="BT5" t="n">
+      <c r="BX5" t="n">
         <v>6.5625</v>
       </c>
-      <c r="BU5" t="n">
-        <v>22.734375</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>3.515625</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>7.96875</v>
-      </c>
       <c r="BY5" t="n">
-        <v>3.046875</v>
+        <v>6.328125</v>
       </c>
       <c r="BZ5" t="n">
-        <v>15.46875</v>
+        <v>16.875</v>
       </c>
       <c r="CA5" t="n">
-        <v>19.921875</v>
+        <v>20.15625</v>
       </c>
       <c r="CB5" t="n">
-        <v>26.25</v>
+        <v>29.296875</v>
       </c>
       <c r="CC5" t="n">
-        <v>46.171875</v>
+        <v>44.296875</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -50678,13 +52090,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>76.53125</v>
+        <v>76.7734375</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.5078125</v>
+        <v>7.75</v>
       </c>
       <c r="R6" t="n">
-        <v>0.96875</v>
+        <v>1.2109375</v>
       </c>
       <c r="S6" t="n">
         <v>2.90625</v>
@@ -50693,10 +52105,10 @@
         <v>3.390625</v>
       </c>
       <c r="U6" t="n">
-        <v>7.5078125</v>
+        <v>7.0234375</v>
       </c>
       <c r="V6" t="n">
-        <v>158.875</v>
+        <v>159.1171875</v>
       </c>
       <c r="W6" t="n">
         <v>1.2109375</v>
@@ -50705,40 +52117,40 @@
         <v>3.6328125</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.0546875</v>
+        <v>6.296875</v>
       </c>
       <c r="Z6" t="n">
-        <v>83.796875</v>
+        <v>83.3125</v>
       </c>
       <c r="AA6" t="n">
+        <v>2.90625</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>35.6015625</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2.421875</v>
       </c>
-      <c r="AB6" t="n">
-        <v>35.359375</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2.6640625</v>
-      </c>
       <c r="AD6" t="n">
-        <v>4.1171875</v>
+        <v>3.6328125</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.96875</v>
+        <v>1.2109375</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.6328125</v>
+        <v>3.875</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.6640625</v>
+        <v>2.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.3828125</v>
+        <v>11.140625</v>
       </c>
       <c r="AI6" t="n">
         <v>470.328125</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.5078125</v>
+        <v>7.75</v>
       </c>
       <c r="AK6" t="n">
         <v>43.109375</v>
@@ -50747,133 +52159,133 @@
         <v>6.0546875</v>
       </c>
       <c r="AM6" t="n">
-        <v>28.578125</v>
+        <v>30.7578125</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>0.484375</v>
       </c>
       <c r="AO6" t="n">
-        <v>47.2265625</v>
+        <v>49.40625</v>
       </c>
       <c r="AP6" t="n">
         <v>7.265625</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30.7578125</v>
+        <v>28.09375</v>
       </c>
       <c r="AR6" t="n">
-        <v>18.1640625</v>
+        <v>16.7109375</v>
       </c>
       <c r="AS6" t="n">
-        <v>70.4765625</v>
+        <v>70.9609375</v>
       </c>
       <c r="AT6" t="n">
-        <v>14.2890625</v>
+        <v>9.203125</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.4765625</v>
+        <v>10.8984375</v>
       </c>
       <c r="AV6" t="n">
-        <v>11.3828125</v>
+        <v>11.140625</v>
       </c>
       <c r="AW6" t="n">
-        <v>14.53125</v>
+        <v>17.1953125</v>
       </c>
       <c r="AX6" t="n">
         <v>9.4453125</v>
       </c>
       <c r="AY6" t="n">
-        <v>6.78125</v>
+        <v>6.5390625</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5.8125</v>
+        <v>6.296875</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.9296875</v>
+        <v>9.6875</v>
       </c>
       <c r="BB6" t="n">
-        <v>12.59375</v>
+        <v>13.5625</v>
       </c>
       <c r="BC6" t="n">
-        <v>12.8359375</v>
+        <v>15.015625</v>
       </c>
       <c r="BD6" t="n">
-        <v>9.203125</v>
+        <v>9.4453125</v>
       </c>
       <c r="BE6" t="n">
-        <v>15.7421875</v>
+        <v>18.40625</v>
       </c>
       <c r="BF6" t="n">
         <v>9.9296875</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.328125</v>
+        <v>6.0546875</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.7265625</v>
+        <v>0.2421875</v>
       </c>
       <c r="BI6" t="n">
         <v>5.8125</v>
       </c>
       <c r="BJ6" t="n">
-        <v>14.7734375</v>
+        <v>15.5</v>
       </c>
       <c r="BK6" t="n">
-        <v>15.7421875</v>
+        <v>12.59375</v>
       </c>
       <c r="BL6" t="n">
-        <v>10.171875</v>
+        <v>12.3515625</v>
       </c>
       <c r="BM6" t="n">
-        <v>26.15625</v>
+        <v>29.3046875</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.0859375</v>
+        <v>4.359375</v>
       </c>
       <c r="BO6" t="n">
         <v>5.5703125</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.6328125</v>
+        <v>4.1171875</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.328125</v>
+        <v>5.0859375</v>
       </c>
       <c r="BR6" t="n">
-        <v>12.109375</v>
+        <v>16.953125</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.5390625</v>
+        <v>11.140625</v>
       </c>
       <c r="BT6" t="n">
-        <v>7.75</v>
+        <v>5.8125</v>
       </c>
       <c r="BU6" t="n">
-        <v>25.1875</v>
+        <v>21.5546875</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.265625</v>
+        <v>9.4453125</v>
       </c>
       <c r="BW6" t="n">
-        <v>4.84375</v>
+        <v>4.359375</v>
       </c>
       <c r="BX6" t="n">
-        <v>4.6015625</v>
+        <v>5.8125</v>
       </c>
       <c r="BY6" t="n">
-        <v>4.6015625</v>
+        <v>4.1171875</v>
       </c>
       <c r="BZ6" t="n">
-        <v>12.3515625</v>
+        <v>16.953125</v>
       </c>
       <c r="CA6" t="n">
-        <v>18.890625</v>
+        <v>19.375</v>
       </c>
       <c r="CB6" t="n">
-        <v>26.15625</v>
+        <v>28.09375</v>
       </c>
       <c r="CC6" t="n">
-        <v>45.2890625</v>
+        <v>47.7109375</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
@@ -50981,6 +52393,1418 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>78.01171875</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.62890625</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4765625</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.953125</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4453125</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.3828125</v>
+      </c>
+      <c r="V7" t="n">
+        <v>161.4375</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.18359375</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.3984375</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>84.90234375</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.70703125</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35.4375</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.4609375</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3.69140625</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.953125</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.3203125</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>477.9140625</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.12109375</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>39.375</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6.3984375</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>31.25390625</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>49.7109375</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>7.62890625</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>30.515625</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12.3046875</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>69.3984375</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>16.98046875</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11.3203125</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>12.3046875</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>18.2109375</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9.59765625</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>6.3984375</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>6.3984375</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>10.3359375</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>16.48828125</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>12.05859375</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>13.78125</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>16.48828125</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>10.3359375</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>5.4140625</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1.23046875</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>5.66015625</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>11.8125</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>11.56640625</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>10.58203125</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>28.0546875</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>4.18359375</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>5.16796875</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>4.67578125</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>4.67578125</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>15.2578125</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>9.59765625</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>5.16796875</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>27.80859375</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>8.3671875</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>3.19921875</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>9.84375</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>2.21484375</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>17.47265625</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>20.671875</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>26.578125</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>48.48046875</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>78.630859375</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.689453125</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.240234375</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.9765625</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.47265625</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.44140625</v>
+      </c>
+      <c r="V8" t="n">
+        <v>162.470703125</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.240234375</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.720703125</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.201171875</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>85.328125</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.728515625</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>35.966796875</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.48046875</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.720703125</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.47265625</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.9765625</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11.41015625</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>481.70703125</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>7.9375</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41.423828125</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6.697265625</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32.494140625</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>49.609375</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7.689453125</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>33.982421875</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>19.34765625</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>74.4140625</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>11.41015625</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.42578125</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>9.921875</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>20.33984375</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9.673828125</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>6.44921875</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6.201171875</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>10.169921875</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>14.634765625</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>14.8828125</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>9.177734375</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>20.587890625</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>10.169921875</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5.953125</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6.201171875</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>13.146484375</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>13.39453125</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>12.8984375</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>27.533203125</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>5.45703125</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>5.208984375</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>4.712890625</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5.45703125</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>13.642578125</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>3.720703125</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2.9765625</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>23.564453125</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>5.705078125</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>4.712890625</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>5.953125</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>6.44921875</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>16.123046875</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>20.8359375</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>28.7734375</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>47.873046875</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>78.69140625</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.7197265625</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.2451171875</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.98828125</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.486328125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7.7197265625</v>
+      </c>
+      <c r="V9" t="n">
+        <v>163.359375</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.2451171875</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.984375</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.474609375</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>85.6640625</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.7392578125</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>35.859375</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.490234375</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.2333984375</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.7470703125</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3.7353515625</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.7392578125</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11.7041015625</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>483.603515625</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.2177734375</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41.8359375</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6.474609375</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>24.6533203125</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>50.0537109375</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>7.470703125</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>31.875</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>12.7001953125</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>74.4580078125</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>10.95703125</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.470703125</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>11.953125</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>21.1669921875</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>9.2138671875</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>6.7236328125</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>6.2255859375</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>9.9609375</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>9.9609375</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>15.1904296875</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>10.458984375</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>19.6728515625</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>10.458984375</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>5.7275390625</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>5.9765625</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>13.6962890625</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>15.439453125</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>10.7080078125</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>26.6455078125</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>4.7314453125</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>5.7275390625</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>3.7353515625</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>5.7275390625</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>14.94140625</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>6.7236328125</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>7.7197265625</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>26.6455078125</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>11.7041015625</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>4.7314453125</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6.2255859375</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>5.478515625</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>15.6884765625</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>19.6728515625</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>28.388671875</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>48.0615234375</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>79.09521484375</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.73486328125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.998046875</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.994140625</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4931640625</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7.4853515625</v>
+      </c>
+      <c r="V10" t="n">
+        <v>163.43017578125</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.24755859375</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.74267578125</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.4873046875</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>85.83203125</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.74462890625</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>36.17919921875</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.24560546875</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.9921875</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.24755859375</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3.9921875</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.4951171875</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11.72705078125</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>484.5517578125</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.984375</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>42.916015625</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.23779296875</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>31.4384765625</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.24755859375</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>50.65087890625</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.73486328125</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>30.68994140625</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>16.4677734375</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>68.11669921875</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>11.4775390625</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>12.4755859375</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>10.978515625</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>10.72900390625</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9.73095703125</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>6.986328125</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>6.4873046875</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>9.98046875</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>14.970703125</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>14.72119140625</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>10.72900390625</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>16.71728515625</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>10.4794921875</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5.73876953125</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>5.23974609375</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>9.4814453125</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>10.72900390625</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>12.4755859375</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>29.19287109375</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>5.23974609375</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>5.73876953125</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>4.24169921875</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>4.74072265625</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>12.974609375</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>11.22802734375</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>10.72900390625</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>22.955078125</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>6.986328125</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>3.4931640625</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.24169921875</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>3.74267578125</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>15.96875</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>21.95703125</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>29.4423828125</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>48.65478515625</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51013,7 +53837,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32050</v>
       </c>
     </row>
     <row r="3">
@@ -51021,7 +53845,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21635.56</v>
+        <v>50630</v>
       </c>
     </row>
     <row r="4">
@@ -51029,7 +53853,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46484.00000000001</v>
+        <v>117120</v>
       </c>
     </row>
     <row r="5">
@@ -51037,7 +53861,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1214279.18</v>
+        <v>157200</v>
       </c>
     </row>
   </sheetData>
@@ -51089,7 +53913,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -51108,7 +53932,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -51127,7 +53951,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -51146,7 +53970,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>105.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -51165,7 +53989,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -51181,7 +54005,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -51200,7 +54024,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -51219,7 +54043,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -51238,7 +54062,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -51257,7 +54081,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -51276,7 +54100,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -51295,7 +54119,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -51314,7 +54138,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -51333,7 +54157,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -51352,7 +54176,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -51371,7 +54195,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.67</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -51390,7 +54214,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.88</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -51409,7 +54233,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.32</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -51428,7 +54252,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -51447,7 +54271,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -51466,7 +54290,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -51485,7 +54309,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4.76</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -51504,7 +54328,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4.38</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -51523,7 +54347,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.56</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -51542,7 +54366,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -51561,7 +54385,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.36</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -51580,7 +54404,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -51599,7 +54423,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>4.65</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -51618,7 +54442,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.39</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -51637,7 +54461,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.32</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -51656,7 +54480,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.57</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -51675,7 +54499,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3.77</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -51694,7 +54518,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.05</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -51713,7 +54537,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -51732,7 +54556,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -51748,7 +54572,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -51767,7 +54591,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -51786,7 +54610,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -51805,7 +54629,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -51824,7 +54648,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -51843,7 +54667,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -51862,7 +54686,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -51881,7 +54705,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -51900,7 +54724,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -51916,7 +54740,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -51935,7 +54759,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -51954,7 +54778,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -51973,7 +54797,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -51992,7 +54816,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -52011,7 +54835,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -52030,7 +54854,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -52049,7 +54873,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -52068,7 +54892,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -52087,7 +54911,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -52106,7 +54930,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -52125,7 +54949,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -52144,7 +54968,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -52163,7 +54987,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -52182,7 +55006,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -52201,7 +55025,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -52220,7 +55044,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -52239,7 +55063,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -52258,7 +55082,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -52277,7 +55101,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -52296,7 +55120,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -52315,7 +55139,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -52334,7 +55158,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -52353,7 +55177,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -52372,7 +55196,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -52391,7 +55215,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -52410,7 +55234,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -52429,7 +55253,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -52448,7 +55272,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -52467,7 +55291,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -52486,7 +55310,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -52505,7 +55329,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -52524,7 +55348,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -52543,7 +55367,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -52562,7 +55386,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -52581,7 +55405,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -52603,7 +55427,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -52622,7 +55446,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -52641,7 +55465,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>6.48</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -52660,7 +55484,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>3.21</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -52679,7 +55503,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>4.95</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -52698,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>11.49</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -52717,7 +55541,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -52736,7 +55560,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>4.73</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -52755,7 +55579,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>6.07</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -52774,7 +55598,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>14.17</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -52793,7 +55617,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>7.96</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -52812,7 +55636,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>4.47</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -52831,7 +55655,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>4.08</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -52850,7 +55674,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -52869,7 +55693,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>7.24</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -52888,7 +55712,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>3.53</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -52907,7 +55731,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>4.16</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -52926,7 +55750,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>12.49</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -52945,7 +55769,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>5.34</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -52964,7 +55788,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>3.92</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -52983,7 +55807,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>4.35</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -53002,7 +55826,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>8.109999999999999</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -53021,7 +55845,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>5.49</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -53040,7 +55864,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>5.48</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -53059,7 +55883,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -53078,7 +55902,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>7.78</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -53097,7 +55921,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -53116,7 +55940,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>3.15</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -53135,7 +55959,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -53154,7 +55978,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>8.51</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -53173,7 +55997,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>8.539999999999999</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -53192,7 +56016,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>3.92</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -53211,7 +56035,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>5.94</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -53230,7 +56054,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -53249,7 +56073,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>5.83</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -53268,7 +56092,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
